--- a/data/form3.xlsx
+++ b/data/form3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dflores/Dropbox/EXTS/Projects/autoHiring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45F32F0-3D03-6646-9F03-915C4F36E435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D94D4B-42C1-A442-884C-D1F8E30D1D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="24820" windowHeight="28340" xr2:uid="{7A64A84C-17F9-2548-864F-7F5C3007427B}"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="24820" windowHeight="14180" xr2:uid="{7A64A84C-17F9-2548-864F-7F5C3007427B}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
   <si>
     <t>First Name</t>
   </si>
@@ -269,30 +269,9 @@
     <t>Independent/In collaboration</t>
   </si>
   <si>
-    <t>Team R</t>
-  </si>
-  <si>
-    <t>Data Science Course Developer and Instructor - R</t>
-  </si>
-  <si>
-    <t>756.6576.5019.29</t>
-  </si>
-  <si>
     <t>Geneva</t>
   </si>
   <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t>Rue Voltaire 12</t>
-  </si>
-  <si>
     <t>FIELD</t>
   </si>
   <si>
@@ -348,12 +327,6 @@
   </si>
   <si>
     <t>MBA</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>CASE</t>
   </si>
 </sst>
 </file>
@@ -363,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,6 +403,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -552,16 +531,22 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -880,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D2E135-155D-3F42-BE22-6B196658E3B7}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,10 +893,10 @@
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>33</v>
@@ -928,8 +913,8 @@
       <c r="C5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>108</v>
+      <c r="D5" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -940,22 +925,22 @@
       <c r="C6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>107</v>
+      <c r="D6" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>82</v>
+      <c r="D7" s="31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -963,11 +948,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="23"/>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>32111</v>
       </c>
       <c r="D8" s="32">
-        <v>32095</v>
+        <v>32111</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -978,8 +963,8 @@
       <c r="C9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
+      <c r="D9" s="31" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -988,7 +973,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
@@ -998,8 +983,8 @@
       <c r="C11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>83</v>
+      <c r="D11" s="31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1010,8 +995,8 @@
       <c r="C12" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>76</v>
+      <c r="D12" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1022,7 +1007,7 @@
       <c r="C13" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1034,34 +1019,36 @@
       <c r="C14" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>84</v>
+      <c r="D14" s="31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C15" s="24">
         <v>2</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>85</v>
+      <c r="D16" s="31" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1072,32 +1059,32 @@
       <c r="C17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="33">
-        <v>42943</v>
-      </c>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <v>32111</v>
       </c>
-      <c r="D19" s="33">
-        <v>42943</v>
+      <c r="D19" s="32">
+        <v>32111</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1108,8 +1095,8 @@
       <c r="C20" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>86</v>
+      <c r="D20" s="31" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1120,27 +1107,27 @@
       <c r="C21" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>61</v>
@@ -1148,11 +1135,11 @@
       <c r="C23" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>67</v>
@@ -1160,23 +1147,23 @@
       <c r="C24" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C25" s="25">
         <v>44105</v>
       </c>
-      <c r="D25" s="32">
-        <v>44058</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D25" s="34">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>46</v>
       </c>
@@ -1184,8 +1171,8 @@
       <c r="C26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>81</v>
+      <c r="D26" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1194,22 +1181,22 @@
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="29">
         <v>0.8</v>
       </c>
-      <c r="D28" s="30">
-        <v>1</v>
+      <c r="D28" s="35">
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1217,13 +1204,13 @@
         <v>58</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1251,7 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>Details!D5</f>
-        <v>CASE</v>
+        <v>MOSER</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -1274,7 +1261,7 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>Details!D6</f>
-        <v>Justin</v>
+        <v>Laure</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -1284,7 +1271,7 @@
       </c>
       <c r="B5" s="10">
         <f>Details!D8</f>
-        <v>32095</v>
+        <v>32111</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -1294,7 +1281,7 @@
       </c>
       <c r="B6" s="8" t="str">
         <f>Details!D20</f>
-        <v>Statistics</v>
+        <v>Business Administration</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -1304,7 +1291,7 @@
       </c>
       <c r="B7" s="12">
         <f>Details!D25</f>
-        <v>44058</v>
+        <v>44105</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -1332,7 +1319,7 @@
       </c>
       <c r="B10" s="8" t="str">
         <f>Details!D26</f>
-        <v>Data Science Course Developer and Instructor - R</v>
+        <v>Course Developer and Instructor</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -1349,7 +1336,7 @@
       </c>
       <c r="B12" s="8">
         <f>Details!D25</f>
-        <v>44058</v>
+        <v>44105</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -1375,7 +1362,7 @@
       </c>
       <c r="B15" s="8">
         <f>Details!D28</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C15" s="5"/>
     </row>
@@ -1439,7 +1426,7 @@
       </c>
       <c r="B4" s="12">
         <f>Details!D25</f>
-        <v>44058</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1435,7 @@
       </c>
       <c r="B5" s="9">
         <f>DATE(YEAR(B4) + 1, MONTH(B4), DAY(B4))</f>
-        <v>44423</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1489,7 +1476,7 @@
       </c>
       <c r="B10" s="8" t="str">
         <f>Details!D5</f>
-        <v>CASE</v>
+        <v>MOSER</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1498,7 +1485,7 @@
       </c>
       <c r="B11" s="8" t="str">
         <f>Details!D6</f>
-        <v>Justin</v>
+        <v>Laure</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1507,7 +1494,7 @@
       </c>
       <c r="B12" s="8" t="str">
         <f>Details!D7</f>
-        <v>756.6576.5019.29</v>
+        <v>756.33.3412.3234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1503,7 @@
       </c>
       <c r="B13" s="8" t="str">
         <f>Details!D9</f>
-        <v>Rue Voltaire 12</v>
+        <v>route de France</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1521,7 @@
       </c>
       <c r="B15" s="8" t="str">
         <f>Details!D11</f>
-        <v>Geneva</v>
+        <v>Lausanne</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1530,7 @@
       </c>
       <c r="B16" s="8" t="str">
         <f>Details!D12</f>
-        <v>GE</v>
+        <v>VD</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1548,7 @@
       </c>
       <c r="B18" s="12">
         <f>Details!D8</f>
-        <v>32095</v>
+        <v>32111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1557,7 @@
       </c>
       <c r="B19" s="8" t="str">
         <f>Details!D14</f>
-        <v>Single</v>
+        <v>Married</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1566,7 @@
       </c>
       <c r="B20" s="8">
         <f>Details!D15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +1593,7 @@
       </c>
       <c r="B23" s="8" t="str">
         <f>Details!D20</f>
-        <v>Statistics</v>
+        <v>Business Administration</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1602,7 @@
       </c>
       <c r="B24" s="8" t="str">
         <f>Details!D16</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1611,7 @@
       </c>
       <c r="B25" s="12">
         <f>Details!D19</f>
-        <v>42943</v>
+        <v>32111</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,7 +1620,7 @@
       </c>
       <c r="B26" s="12">
         <f>Details!D17</f>
-        <v>42943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1629,7 @@
       </c>
       <c r="B27" s="13">
         <f>Details!D28</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
